--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7990306666666666</v>
+        <v>0.1180343333333333</v>
       </c>
       <c r="N2">
-        <v>2.397092</v>
+        <v>0.354103</v>
       </c>
       <c r="O2">
-        <v>0.306551340263404</v>
+        <v>0.07902433777228687</v>
       </c>
       <c r="P2">
-        <v>0.3495008831958055</v>
+        <v>0.08705977225985931</v>
       </c>
       <c r="Q2">
-        <v>1.00059414264</v>
+        <v>0.051666460524</v>
       </c>
       <c r="R2">
-        <v>9.005347283759999</v>
+        <v>0.464998144716</v>
       </c>
       <c r="S2">
-        <v>0.01763836229461208</v>
+        <v>0.001617056733878802</v>
       </c>
       <c r="T2">
-        <v>0.0215224191258966</v>
+        <v>0.001919309369315108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.539663</v>
       </c>
       <c r="O3">
-        <v>0.3247839867920704</v>
+        <v>0.5667706479182028</v>
       </c>
       <c r="P3">
-        <v>0.3702880246230471</v>
+        <v>0.6244016074328403</v>
       </c>
       <c r="Q3">
-        <v>1.06010612946</v>
+        <v>0.370557149004</v>
       </c>
       <c r="R3">
-        <v>9.54095516514</v>
+        <v>3.335014341036</v>
       </c>
       <c r="S3">
-        <v>0.01868743298138803</v>
+        <v>0.01159769659091518</v>
       </c>
       <c r="T3">
-        <v>0.02280250049832545</v>
+        <v>0.01376548346329434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.9609300000000001</v>
+        <v>0.1154756666666667</v>
       </c>
       <c r="N4">
-        <v>1.92186</v>
+        <v>0.346427</v>
       </c>
       <c r="O4">
-        <v>0.3686646729445256</v>
+        <v>0.07731130281708999</v>
       </c>
       <c r="P4">
-        <v>0.2802110921811474</v>
+        <v>0.08517255071170332</v>
       </c>
       <c r="Q4">
-        <v>1.2033342018</v>
+        <v>0.050546470716</v>
       </c>
       <c r="R4">
-        <v>7.2200052108</v>
+        <v>0.454918236444</v>
       </c>
       <c r="S4">
-        <v>0.0212122415156718</v>
+        <v>0.001582003296067618</v>
       </c>
       <c r="T4">
-        <v>0.01725552311771749</v>
+        <v>0.001877703907856542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.48419333333334</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>37.45258</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.5736156831070853</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.6139157624955175</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.7990306666666666</v>
+        <v>0.413581</v>
       </c>
       <c r="N5">
-        <v>2.397092</v>
+        <v>0.827162</v>
       </c>
       <c r="O5">
-        <v>0.306551340263404</v>
+        <v>0.2768937114924203</v>
       </c>
       <c r="P5">
-        <v>0.3495008831958055</v>
+        <v>0.2033660695955972</v>
       </c>
       <c r="Q5">
-        <v>9.975253321928889</v>
+        <v>0.181034329644</v>
       </c>
       <c r="R5">
-        <v>89.77727989736</v>
+        <v>1.086205977864</v>
       </c>
       <c r="S5">
-        <v>0.175842656452585</v>
+        <v>0.005666011932016917</v>
       </c>
       <c r="T5">
-        <v>0.2145641012000097</v>
+        <v>0.00448338414682006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H6">
         <v>37.45258</v>
       </c>
       <c r="I6">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J6">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8465543333333333</v>
+        <v>0.1180343333333333</v>
       </c>
       <c r="N6">
-        <v>2.539663</v>
+        <v>0.354103</v>
       </c>
       <c r="O6">
-        <v>0.3247839867920704</v>
+        <v>0.07902433777228687</v>
       </c>
       <c r="P6">
-        <v>0.3702880246230471</v>
+        <v>0.08705977225985931</v>
       </c>
       <c r="Q6">
-        <v>10.56854796450445</v>
+        <v>1.473563437304444</v>
       </c>
       <c r="R6">
-        <v>95.11693168054001</v>
+        <v>13.26207093574</v>
       </c>
       <c r="S6">
-        <v>0.186301188445976</v>
+        <v>0.0461195842510612</v>
       </c>
       <c r="T6">
-        <v>0.2273256549794169</v>
+        <v>0.05474003991786577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,60 +850,60 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9609300000000001</v>
+        <v>0.8465543333333333</v>
       </c>
       <c r="N7">
-        <v>1.92186</v>
+        <v>2.539663</v>
       </c>
       <c r="O7">
-        <v>0.3686646729445256</v>
+        <v>0.5667706479182028</v>
       </c>
       <c r="P7">
-        <v>0.2802110921811474</v>
+        <v>0.6244016074328403</v>
       </c>
       <c r="Q7">
-        <v>11.9964358998</v>
+        <v>10.56854796450444</v>
       </c>
       <c r="R7">
-        <v>71.97861539880002</v>
+        <v>95.11693168053999</v>
       </c>
       <c r="S7">
-        <v>0.2114718382085242</v>
+        <v>0.3307743840007084</v>
       </c>
       <c r="T7">
-        <v>0.1720260063160908</v>
+        <v>0.3926011753583752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.405587666666666</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>4.216762999999999</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.06458303777058033</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.06912039897939969</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.7990306666666666</v>
+        <v>0.1154756666666667</v>
       </c>
       <c r="N8">
-        <v>2.397092</v>
+        <v>0.346427</v>
       </c>
       <c r="O8">
-        <v>0.306551340263404</v>
+        <v>0.07731130281708999</v>
       </c>
       <c r="P8">
-        <v>0.3495008831958055</v>
+        <v>0.08517255071170332</v>
       </c>
       <c r="Q8">
-        <v>1.123107650355111</v>
+        <v>1.441620547962222</v>
       </c>
       <c r="R8">
-        <v>10.107968853196</v>
+        <v>12.97458493166</v>
       </c>
       <c r="S8">
-        <v>0.01979801678685345</v>
+        <v>0.04511983579168314</v>
       </c>
       <c r="T8">
-        <v>0.02415764049014665</v>
+        <v>0.05355342318090072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.405587666666666</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>4.216762999999999</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.06458303777058033</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.06912039897939969</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.8465543333333333</v>
+        <v>0.413581</v>
       </c>
       <c r="N9">
-        <v>2.539663</v>
+        <v>0.827162</v>
       </c>
       <c r="O9">
-        <v>0.3247839867920704</v>
+        <v>0.2768937114924203</v>
       </c>
       <c r="P9">
-        <v>0.3702880246230471</v>
+        <v>0.2033660695955972</v>
       </c>
       <c r="Q9">
-        <v>1.189906330096555</v>
+        <v>5.163225162993332</v>
       </c>
       <c r="R9">
-        <v>10.709156970869</v>
+        <v>30.97935097796</v>
       </c>
       <c r="S9">
-        <v>0.02097553648627195</v>
+        <v>0.1615986064010032</v>
       </c>
       <c r="T9">
-        <v>0.02559445599923879</v>
+        <v>0.1278692383248425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H10">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I10">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J10">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.9609300000000001</v>
+        <v>0.1180343333333333</v>
       </c>
       <c r="N10">
-        <v>1.92186</v>
+        <v>0.354103</v>
       </c>
       <c r="O10">
-        <v>0.3686646729445256</v>
+        <v>0.07902433777228687</v>
       </c>
       <c r="P10">
-        <v>0.2802110921811474</v>
+        <v>0.08705977225985931</v>
       </c>
       <c r="Q10">
-        <v>1.35067135653</v>
+        <v>0.2120843655467778</v>
       </c>
       <c r="R10">
-        <v>8.104028139179999</v>
+        <v>1.908759289921</v>
       </c>
       <c r="S10">
-        <v>0.02380948449745494</v>
+        <v>0.00663781586699795</v>
       </c>
       <c r="T10">
-        <v>0.01936830249001425</v>
+        <v>0.007878525173794252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.286056</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H11">
-        <v>8.572112000000001</v>
+        <v>5.390407</v>
       </c>
       <c r="I11">
-        <v>0.1969329434934967</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J11">
-        <v>0.1405124740318818</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7990306666666666</v>
+        <v>0.8465543333333333</v>
       </c>
       <c r="N11">
-        <v>2.397092</v>
+        <v>2.539663</v>
       </c>
       <c r="O11">
-        <v>0.306551340263404</v>
+        <v>0.5667706479182028</v>
       </c>
       <c r="P11">
-        <v>0.3495008831958055</v>
+        <v>0.6244016074328403</v>
       </c>
       <c r="Q11">
-        <v>3.424690183050667</v>
+        <v>1.521090801426778</v>
       </c>
       <c r="R11">
-        <v>20.548141098304</v>
+        <v>13.689817212841</v>
       </c>
       <c r="S11">
-        <v>0.06037005776994862</v>
+        <v>0.04760709555758525</v>
       </c>
       <c r="T11">
-        <v>0.04910923377417037</v>
+        <v>0.05650558983813701</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.286056</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>8.572112000000001</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.1969329434934967</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.1405124740318818</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.8465543333333333</v>
+        <v>0.1154756666666667</v>
       </c>
       <c r="N12">
-        <v>2.539663</v>
+        <v>0.346427</v>
       </c>
       <c r="O12">
-        <v>0.3247839867920704</v>
+        <v>0.07731130281708999</v>
       </c>
       <c r="P12">
-        <v>0.3702880246230471</v>
+        <v>0.08517255071170332</v>
       </c>
       <c r="Q12">
-        <v>3.628379279709333</v>
+        <v>0.2074869473098888</v>
       </c>
       <c r="R12">
-        <v>21.770275678256</v>
+        <v>1.867382525789</v>
       </c>
       <c r="S12">
-        <v>0.06396066651851537</v>
+        <v>0.006493925884153758</v>
       </c>
       <c r="T12">
-        <v>0.0520300864441627</v>
+        <v>0.007707739952448923</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.286056</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>8.572112000000001</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.1969329434934967</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.1405124740318818</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.9609300000000001</v>
+        <v>0.413581</v>
       </c>
       <c r="N13">
-        <v>1.92186</v>
+        <v>0.827162</v>
       </c>
       <c r="O13">
-        <v>0.3686646729445256</v>
+        <v>0.2768937114924203</v>
       </c>
       <c r="P13">
-        <v>0.2802110921811474</v>
+        <v>0.2033660695955972</v>
       </c>
       <c r="Q13">
-        <v>4.11859979208</v>
+        <v>0.7431233058223332</v>
       </c>
       <c r="R13">
-        <v>16.47439916832</v>
+        <v>4.458739834934</v>
       </c>
       <c r="S13">
-        <v>0.07260221920503269</v>
+        <v>0.02325827110266402</v>
       </c>
       <c r="T13">
-        <v>0.0393731538135487</v>
+        <v>0.01840373179500315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.335940666666667</v>
+        <v>4.608308</v>
       </c>
       <c r="H14">
-        <v>7.007822</v>
+        <v>9.216616</v>
       </c>
       <c r="I14">
-        <v>0.1073302988371658</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J14">
-        <v>0.1148709217512615</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.7990306666666666</v>
+        <v>0.1180343333333333</v>
       </c>
       <c r="N14">
-        <v>2.397092</v>
+        <v>0.354103</v>
       </c>
       <c r="O14">
-        <v>0.306551340263404</v>
+        <v>0.07902433777228687</v>
       </c>
       <c r="P14">
-        <v>0.3495008831958055</v>
+        <v>0.08705977225985931</v>
       </c>
       <c r="Q14">
-        <v>1.866488228180444</v>
+        <v>0.5439385625746667</v>
       </c>
       <c r="R14">
-        <v>16.798394053624</v>
+        <v>3.263631375448</v>
       </c>
       <c r="S14">
-        <v>0.03290224695940486</v>
+        <v>0.01702418757753186</v>
       </c>
       <c r="T14">
-        <v>0.04014748860558216</v>
+        <v>0.01347084574007026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.335940666666667</v>
+        <v>4.608308</v>
       </c>
       <c r="H15">
-        <v>7.007822</v>
+        <v>9.216616</v>
       </c>
       <c r="I15">
-        <v>0.1073302988371658</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J15">
-        <v>0.1148709217512615</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,84 +1370,394 @@
         <v>2.539663</v>
       </c>
       <c r="O15">
-        <v>0.3247839867920704</v>
+        <v>0.5667706479182028</v>
       </c>
       <c r="P15">
-        <v>0.3702880246230471</v>
+        <v>0.6244016074328403</v>
       </c>
       <c r="Q15">
-        <v>1.977500693776222</v>
+        <v>3.901183106734667</v>
       </c>
       <c r="R15">
-        <v>17.797506243986</v>
+        <v>23.407098640408</v>
       </c>
       <c r="S15">
-        <v>0.03485916235991903</v>
+        <v>0.122099217729636</v>
       </c>
       <c r="T15">
-        <v>0.04253532670190324</v>
+        <v>0.09661428596979987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.608308</v>
+      </c>
+      <c r="H16">
+        <v>9.216616</v>
+      </c>
+      <c r="I16">
+        <v>0.2154296772038511</v>
+      </c>
+      <c r="J16">
+        <v>0.154731001361478</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1154756666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.346427</v>
+      </c>
+      <c r="O16">
+        <v>0.07731130281708999</v>
+      </c>
+      <c r="P16">
+        <v>0.08517255071170332</v>
+      </c>
+      <c r="Q16">
+        <v>0.5321474385053333</v>
+      </c>
+      <c r="R16">
+        <v>3.192884631032</v>
+      </c>
+      <c r="S16">
+        <v>0.01665514901009488</v>
+      </c>
+      <c r="T16">
+        <v>0.01317883406013312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.608308</v>
+      </c>
+      <c r="H17">
+        <v>9.216616</v>
+      </c>
+      <c r="I17">
+        <v>0.2154296772038511</v>
+      </c>
+      <c r="J17">
+        <v>0.154731001361478</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.413581</v>
+      </c>
+      <c r="N17">
+        <v>0.827162</v>
+      </c>
+      <c r="O17">
+        <v>0.2768937114924203</v>
+      </c>
+      <c r="P17">
+        <v>0.2033660695955972</v>
+      </c>
+      <c r="Q17">
+        <v>1.905908630948</v>
+      </c>
+      <c r="R17">
+        <v>7.623634523792</v>
+      </c>
+      <c r="S17">
+        <v>0.05965112288658839</v>
+      </c>
+      <c r="T17">
+        <v>0.03146703559147478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>2.064212666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.192638000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.09649803538741349</v>
+      </c>
+      <c r="J18">
+        <v>0.1039636542098684</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1180343333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.354103</v>
+      </c>
+      <c r="O18">
+        <v>0.07902433777228687</v>
+      </c>
+      <c r="P18">
+        <v>0.08705977225985931</v>
+      </c>
+      <c r="Q18">
+        <v>0.2436479659682222</v>
+      </c>
+      <c r="R18">
+        <v>2.192831693714</v>
+      </c>
+      <c r="S18">
+        <v>0.007625693342817055</v>
+      </c>
+      <c r="T18">
+        <v>0.009051052058813907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>2.064212666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.192638000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.09649803538741349</v>
+      </c>
+      <c r="J19">
+        <v>0.1039636542098684</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8465543333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.539663</v>
+      </c>
+      <c r="O19">
+        <v>0.5667706479182028</v>
+      </c>
+      <c r="P19">
+        <v>0.6244016074328403</v>
+      </c>
+      <c r="Q19">
+        <v>1.747468177888222</v>
+      </c>
+      <c r="R19">
+        <v>15.727213600994</v>
+      </c>
+      <c r="S19">
+        <v>0.054692254039358</v>
+      </c>
+      <c r="T19">
+        <v>0.0649150728032338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>2.064212666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.192638000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.09649803538741349</v>
+      </c>
+      <c r="J20">
+        <v>0.1039636542098684</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1154756666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.346427</v>
+      </c>
+      <c r="O20">
+        <v>0.07731130281708999</v>
+      </c>
+      <c r="P20">
+        <v>0.08517255071170332</v>
+      </c>
+      <c r="Q20">
+        <v>0.2383663338251111</v>
+      </c>
+      <c r="R20">
+        <v>2.145297004426</v>
+      </c>
+      <c r="S20">
+        <v>0.00746038883509059</v>
+      </c>
+      <c r="T20">
+        <v>0.008854849610364006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.335940666666667</v>
-      </c>
-      <c r="H16">
-        <v>7.007822</v>
-      </c>
-      <c r="I16">
-        <v>0.1073302988371658</v>
-      </c>
-      <c r="J16">
-        <v>0.1148709217512615</v>
-      </c>
-      <c r="K16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.9609300000000001</v>
-      </c>
-      <c r="N16">
-        <v>1.92186</v>
-      </c>
-      <c r="O16">
-        <v>0.3686646729445256</v>
-      </c>
-      <c r="P16">
-        <v>0.2802110921811474</v>
-      </c>
-      <c r="Q16">
-        <v>2.24467546482</v>
-      </c>
-      <c r="R16">
-        <v>13.46805278892</v>
-      </c>
-      <c r="S16">
-        <v>0.03956888951784194</v>
-      </c>
-      <c r="T16">
-        <v>0.03218810644377611</v>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>2.064212666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.192638000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.09649803538741349</v>
+      </c>
+      <c r="J21">
+        <v>0.1039636542098684</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.413581</v>
+      </c>
+      <c r="N21">
+        <v>0.827162</v>
+      </c>
+      <c r="O21">
+        <v>0.2768937114924203</v>
+      </c>
+      <c r="P21">
+        <v>0.2033660695955972</v>
+      </c>
+      <c r="Q21">
+        <v>0.8537191388926666</v>
+      </c>
+      <c r="R21">
+        <v>5.122314833356</v>
+      </c>
+      <c r="S21">
+        <v>0.02671969917014784</v>
+      </c>
+      <c r="T21">
+        <v>0.0211426797374567</v>
       </c>
     </row>
   </sheetData>
